--- a/excels/materiales/14Pintura.xlsx
+++ b/excels/materiales/14Pintura.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emanuelziga/GITHUB/COTOCO/excels/materiales/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="460" windowWidth="22720" windowHeight="13460"/>
+    <workbookView xWindow="360" yWindow="450" windowWidth="19320" windowHeight="13470"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -59,9 +54,6 @@
     <t>Fadeli lija pligo agua #80</t>
   </si>
   <si>
-    <t>unidad</t>
-  </si>
-  <si>
     <t>t</t>
   </si>
   <si>
@@ -78,13 +70,22 @@
   </si>
   <si>
     <t>Unidad</t>
+  </si>
+  <si>
+    <t>Pintura spray negro mate</t>
+  </si>
+  <si>
+    <t>Thinner corriente litro</t>
+  </si>
+  <si>
+    <t>Corrostop 9000-700-14 negro cuarto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -574,48 +575,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -623,12 +624,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -670,7 +674,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -702,10 +706,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -737,7 +740,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -913,28 +915,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -966,24 +968,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="B2" s="1">
-        <v>114004</v>
+        <v>14001</v>
       </c>
       <c r="C2" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1">
-        <v>460.35</v>
+        <v>1575.22</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="H2" s="1">
         <v>13</v>
@@ -995,24 +997,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="B3" s="1">
-        <v>114001</v>
+        <v>14002</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6814.16</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1">
-        <v>1575.22</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="1">
         <v>13</v>
@@ -1024,24 +1026,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="B4" s="1">
-        <v>114002</v>
+        <v>14003</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="1">
-        <v>6814.16</v>
+        <v>5548.67</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="1">
         <v>13</v>
@@ -1053,24 +1055,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="B5" s="1">
-        <v>114003</v>
+        <v>14004</v>
       </c>
       <c r="C5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>460.35</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="1">
-        <v>5548.67</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="1">
         <v>13</v>
@@ -1082,7 +1084,107 @@
         <v>14</v>
       </c>
     </row>
+    <row r="6" spans="1:12">
+      <c r="B6" s="1">
+        <v>14005</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2367.2600000000002</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1">
+        <v>13</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>14</v>
+      </c>
+      <c r="L6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7" s="1">
+        <v>14006</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1876.11</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>14</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" s="1">
+        <v>14007</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6402.65</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="1">
+        <v>13</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>14</v>
+      </c>
+      <c r="L8" s="1">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A2:J5">
+    <sortCondition ref="C2:C5"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excels/materiales/14Pintura.xlsx
+++ b/excels/materiales/14Pintura.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emanuelziga/GITHUB/COTOCO/excels/materiales/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="450" windowWidth="19320" windowHeight="13470"/>
+    <workbookView xWindow="360" yWindow="460" windowWidth="19320" windowHeight="13480"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -79,15 +84,46 @@
   </si>
   <si>
     <t>Corrostop 9000-700-14 negro cuarto</t>
+  </si>
+  <si>
+    <t>decuento</t>
+  </si>
+  <si>
+    <t>1575.22</t>
+  </si>
+  <si>
+    <t>6814.16</t>
+  </si>
+  <si>
+    <t>5548.67</t>
+  </si>
+  <si>
+    <t>460.35</t>
+  </si>
+  <si>
+    <t>2367.26</t>
+  </si>
+  <si>
+    <t>1876.11</t>
+  </si>
+  <si>
+    <t>6402.65</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
-    <font>
-      <sz val="11"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="20" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -229,7 +265,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,6 +443,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -528,95 +570,99 @@
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -632,7 +678,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -674,7 +720,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -706,9 +752,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -740,6 +787,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -915,28 +963,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -967,216 +1015,252 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="B2" s="1">
+    <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>14001</v>
       </c>
-      <c r="C2" s="1">
+      <c r="B2" s="3">
+        <v>14001</v>
+      </c>
+      <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1">
-        <v>1575.22</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="3">
         <v>13</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="3">
         <v>1</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="3">
         <v>14</v>
       </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="B3" s="1">
+    <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>14002</v>
       </c>
-      <c r="C3" s="1">
+      <c r="B3" s="3">
+        <v>14002</v>
+      </c>
+      <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1">
-        <v>6814.16</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="3">
         <v>13</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="3">
         <v>1</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="3">
         <v>14</v>
       </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="B4" s="1">
+    <row r="4" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>14003</v>
       </c>
-      <c r="C4" s="1">
+      <c r="B4" s="3">
+        <v>14003</v>
+      </c>
+      <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1">
-        <v>5548.67</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="3">
         <v>13</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="3">
         <v>1</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="3">
         <v>14</v>
       </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="B5" s="1">
+    <row r="5" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>14004</v>
       </c>
-      <c r="C5" s="1">
+      <c r="B5" s="3">
+        <v>14004</v>
+      </c>
+      <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1">
-        <v>460.35</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="3">
         <v>13</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="3">
         <v>1</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="3">
         <v>14</v>
       </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="B6" s="1">
+    <row r="6" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>14005</v>
       </c>
-      <c r="C6" s="1">
+      <c r="B6" s="3">
+        <v>14005</v>
+      </c>
+      <c r="C6" s="3">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="1">
-        <v>2367.2600000000002</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="3">
         <v>13</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="3">
         <v>1</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="3">
         <v>14</v>
       </c>
-      <c r="L6" s="1">
+      <c r="K6" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="B7" s="1">
+    <row r="7" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>14006</v>
       </c>
-      <c r="C7" s="1">
+      <c r="B7" s="3">
+        <v>14006</v>
+      </c>
+      <c r="C7" s="3">
         <v>6</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="1">
-        <v>1876.11</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="E7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="3">
         <v>13</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="3">
         <v>1</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="3">
         <v>14</v>
       </c>
-      <c r="L7">
+      <c r="K7" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="B8" s="1">
+    <row r="8" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>14007</v>
       </c>
-      <c r="C8" s="1">
+      <c r="B8" s="3">
+        <v>14007</v>
+      </c>
+      <c r="C8" s="3">
         <v>7</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="1">
-        <v>6402.65</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="3">
         <v>13</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="3">
         <v>1</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="3">
         <v>14</v>
       </c>
-      <c r="L8" s="1">
+      <c r="K8" s="3">
         <v>10</v>
       </c>
     </row>

--- a/excels/materiales/14Pintura.xlsx
+++ b/excels/materiales/14Pintura.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emanuelziga/GITHUB/COTOCO/excels/materiales/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emanuelziga/GITHUB/COTOCO/materiales/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -108,6 +108,39 @@
   </si>
   <si>
     <t>6402.65</t>
+  </si>
+  <si>
+    <t>Felpa Antigota de 9" 321/10</t>
+  </si>
+  <si>
+    <t>Marco c/felpa semiprof 3" REC0013</t>
+  </si>
+  <si>
+    <t>Sur muro seco gris</t>
+  </si>
+  <si>
+    <t>Fandeli lija pliego agua #120</t>
+  </si>
+  <si>
+    <t>Cinta p/pintor azul 1" x 54,8 mts (masking)</t>
+  </si>
+  <si>
+    <t>Felpa p/pintar 1/2" x 9" GAM YELLOW STRIPE</t>
+  </si>
+  <si>
+    <t>Marco p/felpa profesional 9" GAM</t>
+  </si>
+  <si>
+    <t>Scotch Brite morada indust</t>
+  </si>
+  <si>
+    <t>Fandeli lija pliego agua #150</t>
+  </si>
+  <si>
+    <t>Fandeli lija pliego agua #100</t>
+  </si>
+  <si>
+    <t>Brocha 4" GAM Master Eco Macha</t>
   </si>
 </sst>
 </file>
@@ -612,13 +645,23 @@
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -720,7 +763,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -755,7 +798,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -964,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A9" sqref="A9:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -975,13 +1018,11 @@
     <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="7" customWidth="1"/>
+    <col min="8" max="10" width="12.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -997,13 +1038,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1032,13 +1073,13 @@
       <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="3">
@@ -1067,13 +1108,13 @@
       <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="3">
@@ -1102,13 +1143,13 @@
       <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="3">
@@ -1137,13 +1178,13 @@
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="3">
@@ -1172,13 +1213,13 @@
       <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="3">
@@ -1207,13 +1248,13 @@
       <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="3">
@@ -1242,13 +1283,13 @@
       <c r="D8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="3">
@@ -1263,6 +1304,394 @@
       <c r="K8" s="3">
         <v>10</v>
       </c>
+    </row>
+    <row r="9" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>14008</v>
+      </c>
+      <c r="B9" s="3">
+        <v>14008</v>
+      </c>
+      <c r="C9" s="3">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="8">
+        <v>2646.62</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="3">
+        <v>13</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
+        <v>14</v>
+      </c>
+      <c r="K9" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>14009</v>
+      </c>
+      <c r="B10" s="3">
+        <v>14009</v>
+      </c>
+      <c r="C10" s="3">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1517.7</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="3">
+        <v>13</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3">
+        <v>14</v>
+      </c>
+      <c r="K10" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>14010</v>
+      </c>
+      <c r="B11" s="3">
+        <v>14010</v>
+      </c>
+      <c r="C11" s="3">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="8">
+        <v>4557.5200000000004</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="3">
+        <v>13</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3">
+        <v>14</v>
+      </c>
+      <c r="K11" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>14011</v>
+      </c>
+      <c r="B12" s="3">
+        <v>14011</v>
+      </c>
+      <c r="C12" s="3">
+        <v>11</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="8">
+        <v>393.81</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="3">
+        <v>13</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3">
+        <v>14</v>
+      </c>
+      <c r="K12" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>14012</v>
+      </c>
+      <c r="B13" s="3">
+        <v>14012</v>
+      </c>
+      <c r="C13" s="3">
+        <v>12</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="8">
+        <v>353.98</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="3">
+        <v>13</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3">
+        <v>14</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>14013</v>
+      </c>
+      <c r="B14" s="3">
+        <v>14013</v>
+      </c>
+      <c r="C14" s="3">
+        <v>13</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="8">
+        <v>340.71</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="3">
+        <v>13</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <v>14</v>
+      </c>
+      <c r="K14" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>14014</v>
+      </c>
+      <c r="B15" s="3">
+        <v>14014</v>
+      </c>
+      <c r="C15" s="3">
+        <v>14</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2991.5</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="3">
+        <v>13</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
+        <v>14</v>
+      </c>
+      <c r="K15" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>14015</v>
+      </c>
+      <c r="B16" s="3">
+        <v>14015</v>
+      </c>
+      <c r="C16" s="3">
+        <v>15</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1553.1</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="3">
+        <v>13</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
+        <v>14</v>
+      </c>
+      <c r="K16" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>14016</v>
+      </c>
+      <c r="B17" s="3">
+        <v>14016</v>
+      </c>
+      <c r="C17" s="3">
+        <v>16</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1853.98</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="3">
+        <v>13</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3">
+        <v>14</v>
+      </c>
+      <c r="K17" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>14017</v>
+      </c>
+      <c r="B18" s="3">
+        <v>14017</v>
+      </c>
+      <c r="C18" s="3">
+        <v>17</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="8">
+        <v>694.69</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="3">
+        <v>13</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3">
+        <v>14</v>
+      </c>
+      <c r="K18" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>14018</v>
+      </c>
+      <c r="B19" s="3">
+        <v>14018</v>
+      </c>
+      <c r="C19" s="3">
+        <v>18</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1960.75</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="3">
+        <v>13</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3">
+        <v>14</v>
+      </c>
+      <c r="K19" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="6"/>
     </row>
   </sheetData>
   <sortState ref="A2:J5">
